--- a/medicine/Mort/Tentative_de_meurtre/Tentative_de_meurtre.xlsx
+++ b/medicine/Mort/Tentative_de_meurtre/Tentative_de_meurtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tentative de meurtre est une infraction criminelle reconnue par plusieurs pays qui consiste à tenter de tuer une personne.  
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,13 @@
           <t>Droit canadien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En droit canadien, la tentative de meurtre est punie par l'article 239 (1) du Code criminel[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En droit canadien, la tentative de meurtre est punie par l'article 239 (1) du Code criminel
 « 239 (1) C.cr. Quiconque, par quelque moyen, tente de commettre un meurtre est coupable d’un acte criminel »
-L'arrêt R. c. Ancio[2] est un arrêt de principe concernant la tentative de meurtre. Il s'agit d'une infraction d'intention spécifique. 
+L'arrêt R. c. Ancio est un arrêt de principe concernant la tentative de meurtre. Il s'agit d'une infraction d'intention spécifique. 
 </t>
         </is>
       </c>
